--- a/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="12600" windowWidth="27795" xWindow="480" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
   <si>
     <t>S.No.</t>
   </si>
@@ -121,31 +120,98 @@
     <t>Znode9X.listPage.productAttributes</t>
   </si>
   <si>
-    <t>Do not click on any attribute and click on Tools directly</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.tools</t>
-  </si>
-  <si>
-    <t>Click on Delete</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.toolsDelete</t>
-  </si>
-  <si>
-    <t>Error pop ups appear</t>
-  </si>
-  <si>
-    <t>PopUps</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.okPopUp</t>
+    <t>Znode9X.listPage.deleteIcon</t>
+  </si>
+  <si>
+    <t>Click on Add New</t>
+  </si>
+  <si>
+    <t>Znode9X.addNew.addnewoption</t>
+  </si>
+  <si>
+    <t>Select a text dropdown in Attribute Type</t>
+  </si>
+  <si>
+    <t>DropDown</t>
+  </si>
+  <si>
+    <t>Znode9X.addNew.attributeType</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Enter the value in Code field and keep locale field Blank</t>
+  </si>
+  <si>
+    <t>Znode9X.addNew.code</t>
+  </si>
+  <si>
+    <t>Click on Save</t>
+  </si>
+  <si>
+    <t>Znode9X.addNew.save</t>
+  </si>
+  <si>
+    <t>Click on Cancel button</t>
+  </si>
+  <si>
+    <t>Znode9X.addNew.cancel</t>
+  </si>
+  <si>
+    <t>Attribute Test3</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.confirmDeletOk</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.confirmDeleteValidation</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Enter attribute name in search field</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchField</t>
+  </si>
+  <si>
+    <t>Click on search icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchIcon</t>
+  </si>
+  <si>
+    <t>Click on delete icon</t>
+  </si>
+  <si>
+    <t>Click on Ok in confirmation pop up</t>
+  </si>
+  <si>
+    <t>Check for delete validation</t>
+  </si>
+  <si>
+    <t>Record deleted successfully.</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.cancelSearch</t>
+  </si>
+  <si>
+    <t>Click on cancel search icon</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,12 +251,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF263238"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,8 +288,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -258,50 +337,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -315,10 +426,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -476,7 +587,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -485,13 +596,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -501,7 +612,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -510,7 +621,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -519,7 +630,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -529,12 +640,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -565,7 +676,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -584,7 +695,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -596,18 +707,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,26 +754,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="78.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="84.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -866,105 +989,333 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="8">
         <v>7</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="8">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="8">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="F15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="8">
+        <v>15</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="16">
-        <v>8</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="E16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="8">
+        <v>16</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="8">
+        <v>17</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="16">
-        <v>9</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="E18" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="F2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12600" windowWidth="27795" xWindow="480" yWindow="105"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
-    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
+    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>S.No.</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Znode9X.listPage.productAttributes</t>
   </si>
   <si>
-    <t>Znode9X.listPage.deleteIcon</t>
-  </si>
-  <si>
     <t>Click on Add New</t>
   </si>
   <si>
@@ -165,53 +162,37 @@
     <t>xyz</t>
   </si>
   <si>
-    <t>Znode9X.listPage.confirmDeletOk</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.confirmDeleteValidation</t>
-  </si>
-  <si>
-    <t>Assertion</t>
-  </si>
-  <si>
-    <t>Enter attribute name in search field</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.searchField</t>
-  </si>
-  <si>
-    <t>Click on search icon</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.searchIcon</t>
-  </si>
-  <si>
-    <t>Click on delete icon</t>
-  </si>
-  <si>
-    <t>Click on Ok in confirmation pop up</t>
-  </si>
-  <si>
-    <t>Check for delete validation</t>
-  </si>
-  <si>
-    <t>Record deleted successfully.</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.cancelSearch</t>
-  </si>
-  <si>
-    <t>Click on cancel search icon</t>
-  </si>
-  <si>
-    <t>Pass</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Click on Attribute Code Manage filter</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.mageFilterAttributeCode</t>
+  </si>
+  <si>
+    <t>Click on search icon of filter</t>
+  </si>
+  <si>
+    <t>Enter attribute code in attribute code filter search</t>
+  </si>
+  <si>
+    <t>Click on cancel icon of attribute code filter search</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributeCodeFilterClose</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributeCodeFilter</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributeCodeFilterSearch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -337,82 +318,55 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="6" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="2" numFmtId="1" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="7" fontId="5" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,10 +380,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -587,7 +541,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -596,13 +550,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -612,7 +566,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -621,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -630,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -640,12 +594,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -676,7 +630,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -695,7 +649,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -707,18 +661,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,33 +713,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:B18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="78.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="84.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="78.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="84.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="75.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,13 +950,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>17</v>
@@ -1024,16 +978,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>17</v>
@@ -1052,16 +1006,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>17</v>
@@ -1080,13 +1034,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>17</v>
@@ -1108,13 +1062,13 @@
         <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>17</v>
@@ -1130,22 +1084,22 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="8">
         <v>12</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>17</v>
@@ -1158,22 +1112,22 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="8">
         <v>13</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>17</v>
@@ -1186,19 +1140,19 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15" s="8">
         <v>14</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>17</v>
@@ -1214,19 +1168,19 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="8">
         <v>15</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>17</v>
@@ -1237,85 +1191,25 @@
       <c r="H16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8">
-        <v>16</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="8">
-        <v>17</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="12600" windowWidth="27795" xWindow="480" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
-    <sheet name="TestCases" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TestSuite" r:id="rId1" sheetId="1"/>
+    <sheet name="TestCases" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
   <si>
     <t>S.No.</t>
   </si>
@@ -33,167 +33,126 @@
     <t>Y</t>
   </si>
   <si>
+    <t>Step No.</t>
+  </si>
+  <si>
+    <t>TestStep</t>
+  </si>
+  <si>
+    <t>KeyWord</t>
+  </si>
+  <si>
+    <t>Locator</t>
+  </si>
+  <si>
+    <t>Test Data 1</t>
+  </si>
+  <si>
+    <t>TestData2</t>
+  </si>
+  <si>
+    <t>Test Data 3</t>
+  </si>
+  <si>
+    <t>TestData4</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open the Brower</t>
+  </si>
+  <si>
+    <t>LaunchBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>http://admin9xqa.znodellc.com/</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Enter correct username</t>
+  </si>
+  <si>
+    <t>SendKeys</t>
+  </si>
+  <si>
+    <t>admin@znode.com</t>
+  </si>
+  <si>
+    <t>Enter correct password</t>
+  </si>
+  <si>
+    <t>admin12345</t>
+  </si>
+  <si>
+    <t>click on login</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Click on Menu button</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.username</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.password</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.loginbutton</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.menu</t>
+  </si>
+  <si>
+    <t>Click on products attribute in PIM module</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.productAttributes</t>
+  </si>
+  <si>
     <t>Attribute Test2</t>
   </si>
   <si>
-    <t>Step No.</t>
-  </si>
-  <si>
-    <t>TestStep</t>
-  </si>
-  <si>
-    <t>KeyWord</t>
-  </si>
-  <si>
-    <t>Locator</t>
-  </si>
-  <si>
-    <t>Test Data 1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
-    <t>Test Data 3</t>
-  </si>
-  <si>
-    <t>TestData4</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Open the Brower</t>
-  </si>
-  <si>
-    <t>LaunchBrowser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>http://admin9xqa.znodellc.com/</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Enter correct username</t>
-  </si>
-  <si>
-    <t>SendKeys</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.username</t>
-  </si>
-  <si>
-    <t>admin@znode.com</t>
-  </si>
-  <si>
-    <t>Enter correct password</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.password</t>
-  </si>
-  <si>
-    <t>admin12345</t>
-  </si>
-  <si>
-    <t>click on login</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.loginbutton</t>
-  </si>
-  <si>
-    <t>Click on Menu button</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.menu</t>
-  </si>
-  <si>
-    <t>Click on products attribute in PIM module</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.productAttributes</t>
-  </si>
-  <si>
-    <t>Click on Add New</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.addnewoption</t>
-  </si>
-  <si>
-    <t>Select a text dropdown in Attribute Type</t>
-  </si>
-  <si>
-    <t>DropDown</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.attributeType</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Enter the value in Code field and keep locale field Blank</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.code</t>
-  </si>
-  <si>
-    <t>Click on Save</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.save</t>
-  </si>
-  <si>
-    <t>Click on Cancel button</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.cancel</t>
-  </si>
-  <si>
-    <t>Attribute Test3</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Click on Attribute Code Manage filter</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.mageFilterAttributeCode</t>
-  </si>
-  <si>
-    <t>Click on search icon of filter</t>
-  </si>
-  <si>
-    <t>Enter attribute code in attribute code filter search</t>
-  </si>
-  <si>
-    <t>Click on cancel icon of attribute code filter search</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.attributeCodeFilterClose</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.attributeCodeFilter</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.attributeCodeFilterSearch</t>
+    <t>Znode9X,listPage.manageFilter</t>
+  </si>
+  <si>
+    <t>Check if Attribute Type Manage Filter exist</t>
+  </si>
+  <si>
+    <t>IsDisplayed</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.manageFilterAttributeType</t>
+  </si>
+  <si>
+    <t>Click on Manage Filter DropDown</t>
+  </si>
+  <si>
+    <t>Click on Attribute Type checkbox in Manage Filter DropDown</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.attributeTypeCheckBox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute Type  </t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,15 +189,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF263238"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,18 +218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,53 +260,39 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="2" fontId="1" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -380,10 +306,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -541,7 +467,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -550,13 +476,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -566,7 +492,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -575,7 +501,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -584,7 +510,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -594,12 +520,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -630,7 +556,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -649,7 +575,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -661,18 +587,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="4.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,44 +628,33 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="78.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="84.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="75.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="78.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="84.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="75.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,31 +662,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -782,25 +697,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
       <c r="E2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -810,25 +729,29 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>17</v>
+      <c r="G3" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -838,25 +761,29 @@
         <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -866,25 +793,29 @@
         <v>4</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -894,25 +825,29 @@
         <v>5</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="F6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -922,294 +857,142 @@
         <v>6</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>5</v>
-      </c>
       <c r="B8" s="8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="F8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="8">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="8">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="8">
-        <v>8</v>
-      </c>
-      <c r="C9" s="20" t="s">
+      <c r="D10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="8">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="21" t="s">
+      <c r="F10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="8">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="J10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8">
-        <v>11</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="8">
-        <v>12</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="8">
-        <v>13</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="8">
-        <v>14</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="8">
-        <v>15</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="F2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
+++ b/Znode9X/TestData/ProductAttributes/ProductAttributeTestDataSample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
   <si>
     <t>S.No.</t>
   </si>
@@ -120,28 +120,31 @@
     <t>Attribute Test2</t>
   </si>
   <si>
-    <t>Znode9X,listPage.manageFilter</t>
-  </si>
-  <si>
-    <t>Check if Attribute Type Manage Filter exist</t>
-  </si>
-  <si>
     <t>IsDisplayed</t>
   </si>
   <si>
-    <t>Znode9X.listPage.manageFilterAttributeType</t>
-  </si>
-  <si>
-    <t>Click on Manage Filter DropDown</t>
-  </si>
-  <si>
-    <t>Click on Attribute Type checkbox in Manage Filter DropDown</t>
-  </si>
-  <si>
-    <t>Znode9X.listPage.attributeTypeCheckBox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute Type  </t>
+    <t>Enter data in search field</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchField</t>
+  </si>
+  <si>
+    <t>Click on search icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.searchIcon</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Check If attribute exist</t>
+  </si>
+  <si>
+    <t>Click on cancel search icon</t>
+  </si>
+  <si>
+    <t>Znode9X.listPage.cancelSearch</t>
   </si>
   <si>
     <t>Pass</t>
@@ -190,7 +193,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +221,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +272,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +295,7 @@
     <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="3" numFmtId="49" xfId="1"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0"/>
     <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="4" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -641,10 +651,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,12 +724,8 @@
       <c r="H2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -746,12 +752,8 @@
       <c r="H3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -778,12 +780,8 @@
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -810,12 +808,8 @@
       <c r="H5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -842,12 +836,8 @@
       <c r="H6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -874,31 +864,27 @@
       <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>16</v>
@@ -906,28 +892,24 @@
       <c r="H8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>16</v>
@@ -938,31 +920,27 @@
       <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>16</v>
@@ -971,11 +949,39 @@
         <v>16</v>
       </c>
       <c r="I10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="D11" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
+      <c r="F11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
